--- a/biology/Botanique/Komandandi_tee/Komandandi_tee.xlsx
+++ b/biology/Botanique/Komandandi_tee/Komandandi_tee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La rue du commandant (estonien : Komandandi tee) est une rue reliant la rue Toompea à la Place de la Liberté dans l'Arrondissement de Kesklinn  Tallinn en Estonie.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La rue du commandant mesure environ 215m de lon.
 Au nord de la rue du commandant se trouvent le jardin du commandant et la tour Kiek in de Kök, au sud le parc Harjumägi.
